--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3988.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3988.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.275458035389013</v>
+        <v>0.7708112001419067</v>
       </c>
       <c r="B1">
-        <v>2.718422382745361</v>
+        <v>1.37587559223175</v>
       </c>
       <c r="C1">
-        <v>4.806921548592341</v>
+        <v>4.113471031188965</v>
       </c>
       <c r="D1">
-        <v>3.305356948748698</v>
+        <v>5.913780689239502</v>
       </c>
       <c r="E1">
-        <v>1.324040850342076</v>
+        <v>1.742050528526306</v>
       </c>
     </row>
   </sheetData>
